--- a/CorrelationAnalysis/data/observatory_production_aggregated.xlsx
+++ b/CorrelationAnalysis/data/observatory_production_aggregated.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osi0pr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osi0pr\Documents\Github\Masterarbeit\CorrelationAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA90CC9-6C58-4628-82BC-EEC6362D7D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F3DED0-59C1-4DA1-AA67-FF1C5230A74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aggregated data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Aggregated data'!$A$1:$H$206</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -57,9 +60,6 @@
   </si>
   <si>
     <t>Production capacity MWel</t>
-  </si>
-  <si>
-    <t>Output T/year</t>
   </si>
   <si>
     <t>Austria</t>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>Iceland</t>
+  </si>
+  <si>
+    <t>Output T/year</t>
   </si>
 </sst>
 </file>
@@ -593,7 +596,7 @@
   <dimension ref="A1:AM1206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,7 +634,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -667,26 +670,24 @@
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
       </c>
       <c r="F2" s="3">
-        <v>2100</v>
+        <v>96766.112500000003</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3">
-        <v>1449</v>
+        <v>70639.262124999994</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -722,26 +723,24 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
       </c>
       <c r="F3" s="4">
-        <v>10248.6</v>
+        <v>57570.720000000001</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4">
-        <v>6000.4756476683924</v>
+        <v>33707.209119170977</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -776,25 +775,27 @@
       <c r="AM3" s="1"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="3">
-        <v>96766.112500000003</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3">
-        <v>70639.262124999994</v>
+      <c r="F4" s="4">
+        <v>10248.6</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4">
+        <v>6000.4756476683924</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -830,24 +831,24 @@
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
       </c>
       <c r="F5" s="4">
-        <v>57570.720000000001</v>
+        <v>3303.8249999999998</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4">
-        <v>33707.209119170977</v>
+        <v>2576.9834999999998</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -883,24 +884,26 @@
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>389.82</v>
+        <v>2100</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3">
-        <v>284.5686</v>
+        <v>1449</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -936,24 +939,26 @@
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="4">
-        <v>3303.8249999999998</v>
-      </c>
-      <c r="G7" s="4"/>
+        <v>991.69811320754718</v>
+      </c>
+      <c r="G7" s="4">
+        <v>6</v>
+      </c>
       <c r="H7" s="4">
-        <v>2576.9834999999998</v>
+        <v>674.35471698113213</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -989,26 +994,24 @@
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
       </c>
       <c r="F8" s="3">
-        <v>11200</v>
+        <v>389.82</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3">
-        <v>7727.9999999999982</v>
+        <v>284.5686</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1043,27 +1046,27 @@
       <c r="AM8" s="1"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="3">
         <v>2</v>
       </c>
-      <c r="F9" s="4">
-        <v>18872</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4">
-        <v>13021.68</v>
+      <c r="F9" s="3">
+        <v>173.54716981132071</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="H9" s="3">
+        <v>118.0120754716981</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1099,26 +1102,26 @@
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
       <c r="F10" s="3">
-        <v>18447.48</v>
-      </c>
-      <c r="G10" s="3"/>
+        <v>33.056603773584897</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.2</v>
+      </c>
       <c r="H10" s="3">
-        <v>15959.21525581395</v>
+        <v>22.478490566037731</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1154,26 +1157,24 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="E11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="4">
-        <v>19813.96</v>
+        <v>186560</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4">
-        <v>17141.37934883721</v>
+        <v>161396.09302325579</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1208,27 +1209,25 @@
       <c r="AM11" s="1"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>9889</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3">
-        <v>5789.932642487046</v>
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4">
+        <v>149810.9838577497</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4">
+        <v>109362.0182161573</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1263,25 +1262,25 @@
       <c r="AM12" s="1"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="4">
-        <v>2</v>
-      </c>
-      <c r="F13" s="4">
-        <v>149810.9838577497</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4">
-        <v>109362.0182161573</v>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>78789.983857749743</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
+        <v>57516.688216157308</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1317,14 +1316,14 @@
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -1370,24 +1369,26 @@
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="4">
-        <v>186560</v>
+        <v>19813.96</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4">
-        <v>161396.09302325579</v>
+        <v>17141.37934883721</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1423,24 +1424,26 @@
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D16" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
       </c>
       <c r="F16" s="3">
-        <v>78789.983857749743</v>
+        <v>18447.48</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3">
-        <v>57516.688216157308</v>
+        <v>15959.21525581395</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1476,26 +1479,26 @@
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="4">
-        <v>7686.45</v>
+        <v>18872</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4">
-        <v>5479.0592307692305</v>
+        <v>13021.68</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1531,24 +1534,26 @@
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D18" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
       </c>
       <c r="F18" s="3">
-        <v>79898.625</v>
+        <v>11200</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3">
-        <v>48604.996874999997</v>
+        <v>7727.9999999999982</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1583,25 +1588,27 @@
       <c r="AM18" s="1"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="A19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="3">
         <v>1</v>
       </c>
-      <c r="F19" s="4">
-        <v>94117.647058823539</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4">
-        <v>67088.989441930622</v>
+      <c r="F19" s="3">
+        <v>9889</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
+        <v>5789.932642487046</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1636,25 +1643,27 @@
       <c r="AM19" s="1"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
-        <v>79898.625</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3">
-        <v>9720.9993749999994</v>
+      <c r="B20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="4">
+        <v>4</v>
+      </c>
+      <c r="F20" s="4">
+        <v>264.45283018867917</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="H20" s="4">
+        <v>179.82792452830191</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1690,24 +1699,24 @@
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
       </c>
       <c r="F21" s="4">
-        <v>70000</v>
+        <v>94117.647058823539</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4">
-        <v>52595.803692307687</v>
+        <v>67088.989441930622</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1743,26 +1752,24 @@
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
       </c>
       <c r="F22" s="3">
-        <v>2100</v>
+        <v>79898.625</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3">
-        <v>1449</v>
+        <v>48604.996874999997</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1798,26 +1805,26 @@
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="E23" s="4">
         <v>1</v>
       </c>
       <c r="F23" s="4">
-        <v>9309.1450000000004</v>
+        <v>7686.45</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4">
-        <v>7979.267142857143</v>
+        <v>5479.0592307692305</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1852,27 +1859,25 @@
       <c r="AM23" s="1"/>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="A24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="3">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="4">
         <v>1</v>
       </c>
-      <c r="F24" s="3">
-        <v>2500</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3">
-        <v>2162.7906976744189</v>
+      <c r="F24" s="4">
+        <v>70000</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4">
+        <v>52595.803692307687</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1907,25 +1912,25 @@
       <c r="AM24" s="1"/>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="4" t="s">
+      <c r="A25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>1</v>
       </c>
-      <c r="F25" s="4">
-        <v>53265.75</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4">
-        <v>37286.024999999987</v>
+      <c r="F25" s="3">
+        <v>79898.625</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3">
+        <v>9720.9993749999994</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1960,25 +1965,25 @@
       <c r="AM25" s="1"/>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>13650</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3">
-        <v>10647</v>
+      <c r="A26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2</v>
+      </c>
+      <c r="F26" s="4">
+        <v>51732.37</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4">
+        <v>44342.031428571419</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -2014,24 +2019,24 @@
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E27" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="4">
-        <v>51732.37</v>
+        <v>53265.75</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4">
-        <v>44342.031428571419</v>
+        <v>37286.024999999987</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -2067,24 +2072,24 @@
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
       </c>
       <c r="F28" s="3">
-        <v>164.0675</v>
+        <v>13650</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3">
-        <v>55.782949999999992</v>
+        <v>10647</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -2120,24 +2125,26 @@
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D29" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" s="4">
-        <v>30411.993235294121</v>
+        <v>9309.1450000000004</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4">
-        <v>24363.19900064998</v>
+        <v>7979.267142857143</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -2173,26 +2180,26 @@
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
       </c>
       <c r="F30" s="3">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3">
-        <v>1449</v>
+        <v>2162.7906976744189</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -2227,27 +2234,27 @@
       <c r="AM30" s="1"/>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="4" t="s">
+      <c r="A31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="4">
+      <c r="D31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="3">
         <v>1</v>
       </c>
-      <c r="F31" s="4">
-        <v>7174.0199999999986</v>
-      </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4">
-        <v>6541.0182352941156</v>
+      <c r="F31" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3">
+        <v>1449</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -2282,27 +2289,25 @@
       <c r="AM31" s="1"/>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="3">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3">
-        <v>13980</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3">
-        <v>10904.4</v>
+      <c r="A32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="4">
+        <v>2</v>
+      </c>
+      <c r="F32" s="4">
+        <v>30411.993235294121</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4">
+        <v>24363.19900064998</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -2338,24 +2343,26 @@
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E33" s="4">
         <v>4</v>
       </c>
       <c r="F33" s="4">
-        <v>17717.099999999999</v>
-      </c>
-      <c r="G33" s="4"/>
+        <v>727.24528301886789</v>
+      </c>
+      <c r="G33" s="4">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="H33" s="4">
-        <v>13819.338</v>
+        <v>494.52679245283019</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -2391,24 +2398,24 @@
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E34" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" s="3">
-        <v>120720.44128</v>
+        <v>164.0675</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3">
-        <v>110068.637637647</v>
+        <v>55.782949999999992</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -2443,25 +2450,27 @@
       <c r="AM34" s="1"/>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="4">
+      <c r="A35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="3">
         <v>1</v>
       </c>
-      <c r="F35" s="4">
-        <v>35040</v>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4">
-        <v>31948.23529411765</v>
+      <c r="F35" s="3">
+        <v>41.320754716981128</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H35" s="3">
+        <v>28.098113207547168</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -2497,24 +2506,26 @@
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E36" s="3">
         <v>1</v>
       </c>
       <c r="F36" s="3">
-        <v>788.4</v>
-      </c>
-      <c r="G36" s="3"/>
+        <v>16.528301886792448</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.1</v>
+      </c>
       <c r="H36" s="3">
-        <v>614.952</v>
+        <v>11.239245283018869</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -2550,26 +2561,26 @@
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="E37" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F37" s="4">
-        <v>28056</v>
-      </c>
-      <c r="G37" s="4"/>
+        <v>24.79245283018868</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0.15</v>
+      </c>
       <c r="H37" s="4">
-        <v>19358.64</v>
+        <v>16.858867924528301</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -2605,26 +2616,24 @@
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C38" s="3"/>
       <c r="D38" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E38" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" s="3">
-        <v>1176</v>
+        <v>120720.44128</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3">
-        <v>811.43999999999994</v>
+        <v>110068.637637647</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -2660,26 +2669,24 @@
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E39" s="4">
         <v>1</v>
       </c>
       <c r="F39" s="4">
-        <v>9324</v>
+        <v>35040</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4">
-        <v>6433.5599999999986</v>
+        <v>31948.23529411765</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -2714,27 +2721,25 @@
       <c r="AM39" s="1"/>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3">
-        <v>8028.07</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3">
-        <v>4014.0349999999999</v>
+      <c r="A40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="4">
+        <v>4</v>
+      </c>
+      <c r="F40" s="4">
+        <v>17717.099999999999</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4">
+        <v>13819.338</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -2769,27 +2774,27 @@
       <c r="AM40" s="1"/>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="4">
-        <v>5</v>
-      </c>
-      <c r="F41" s="4">
-        <v>39627.919999999998</v>
-      </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4">
-        <v>25940.459231522891</v>
+      <c r="A41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3</v>
+      </c>
+      <c r="F41" s="3">
+        <v>13980</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3">
+        <v>10904.4</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -2824,27 +2829,27 @@
       <c r="AM41" s="1"/>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="3">
+      <c r="A42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="4">
         <v>1</v>
       </c>
-      <c r="F42" s="3">
-        <v>3683.4</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3">
-        <v>2873.0520000000001</v>
+      <c r="F42" s="4">
+        <v>7174.0199999999986</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4">
+        <v>6541.0182352941156</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -2879,27 +2884,27 @@
       <c r="AM42" s="1"/>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B43" s="4" t="s">
+      <c r="A43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="4">
+      <c r="D43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="3">
         <v>1</v>
       </c>
-      <c r="F43" s="4">
-        <v>4472.6999999999989</v>
-      </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4">
-        <v>3488.7059999999992</v>
+      <c r="F43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3">
+        <v>1449</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -2934,27 +2939,27 @@
       <c r="AM43" s="1"/>
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B44" s="3" t="s">
+      <c r="A44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1487.5471698113211</v>
+      </c>
+      <c r="G44" s="4">
         <v>9</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1</v>
-      </c>
-      <c r="F44" s="3">
-        <v>13449.04</v>
-      </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3">
-        <v>9768.2501052631596</v>
+      <c r="H44" s="4">
+        <v>1011.532075471698</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -2989,25 +2994,25 @@
       <c r="AM44" s="1"/>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="4">
-        <v>4</v>
-      </c>
-      <c r="F45" s="4">
-        <v>266151.19750000001</v>
-      </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4">
-        <v>151706.18257500001</v>
+      <c r="A45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3">
+        <v>788.4</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3">
+        <v>614.952</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -3043,24 +3048,26 @@
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E46" s="3">
         <v>1</v>
       </c>
       <c r="F46" s="3">
-        <v>3111</v>
-      </c>
-      <c r="G46" s="3"/>
+        <v>115.69811320754719</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0.7</v>
+      </c>
       <c r="H46" s="3">
-        <v>2426.58</v>
+        <v>78.674716981132079</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -3096,14 +3103,14 @@
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E47" s="4">
         <v>7</v>
@@ -3148,25 +3155,25 @@
       <c r="AM47" s="1"/>
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" s="3" t="s">
+      <c r="A48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" s="3">
-        <v>6</v>
-      </c>
-      <c r="F48" s="3">
-        <v>20711.888949114709</v>
-      </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3">
-        <v>16155.273380309471</v>
+      <c r="E48" s="4">
+        <v>4</v>
+      </c>
+      <c r="F48" s="4">
+        <v>266151.19750000001</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4">
+        <v>151706.18257500001</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -3201,25 +3208,25 @@
       <c r="AM48" s="1"/>
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="4">
-        <v>3</v>
-      </c>
-      <c r="F49" s="4">
-        <v>23571.336837443461</v>
-      </c>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4">
-        <v>18385.642733205899</v>
+      <c r="A49" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2</v>
+      </c>
+      <c r="F49" s="3">
+        <v>45698.190637494859</v>
+      </c>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3">
+        <v>33191.317410390999</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -3254,25 +3261,27 @@
       <c r="AM49" s="1"/>
     </row>
     <row r="50" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="3">
-        <v>2</v>
-      </c>
-      <c r="F50" s="3">
-        <v>45698.190637494859</v>
-      </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3">
-        <v>33191.317410390999</v>
+      <c r="A50" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="4">
+        <v>5</v>
+      </c>
+      <c r="F50" s="4">
+        <v>39627.919999999998</v>
+      </c>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4">
+        <v>25940.459231522891</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -3308,24 +3317,26 @@
     </row>
     <row r="51" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D51" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E51" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F51" s="4">
-        <v>13394.297255817461</v>
+        <v>28056</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4">
-        <v>9728.4895858042601</v>
+        <v>19358.64</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -3360,27 +3371,25 @@
       <c r="AM51" s="1"/>
     </row>
     <row r="52" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="3" t="s">
+      <c r="A52" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" s="3">
-        <v>6</v>
-      </c>
-      <c r="F52" s="3">
-        <v>42980</v>
-      </c>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3">
-        <v>29656.2</v>
+      <c r="E52" s="4">
+        <v>3</v>
+      </c>
+      <c r="F52" s="4">
+        <v>23571.336837443461</v>
+      </c>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4">
+        <v>18385.642733205899</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -3415,27 +3424,25 @@
       <c r="AM52" s="1"/>
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="4">
-        <v>5</v>
-      </c>
-      <c r="F53" s="4">
-        <v>30492</v>
-      </c>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4">
-        <v>21039.48</v>
+      <c r="A53" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="3">
+        <v>6</v>
+      </c>
+      <c r="F53" s="3">
+        <v>20711.888949114709</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3">
+        <v>16155.273380309471</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -3471,26 +3478,26 @@
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E54" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F54" s="3">
-        <v>105696.49435021239</v>
+        <v>13449.04</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3">
-        <v>72930.58110164656</v>
+        <v>9768.2501052631596</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -3526,26 +3533,24 @@
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="E55" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" s="4">
-        <v>20240.98499999999</v>
+        <v>13394.297255817461</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4">
-        <v>15858.404284798689</v>
+        <v>9728.4895858042601</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -3580,27 +3585,27 @@
       <c r="AM55" s="1"/>
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B56" s="3" t="s">
+      <c r="A56" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" s="3">
-        <v>7</v>
-      </c>
-      <c r="F56" s="3">
-        <v>73943.649000000005</v>
-      </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3">
-        <v>57933.360463201308</v>
+      <c r="D56" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1</v>
+      </c>
+      <c r="F56" s="4">
+        <v>9324</v>
+      </c>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4">
+        <v>6433.5599999999986</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -3635,27 +3640,27 @@
       <c r="AM56" s="1"/>
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="4" t="s">
+      <c r="A57" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E57" s="4">
+      <c r="D57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="3">
         <v>1</v>
       </c>
-      <c r="F57" s="4">
-        <v>10877.9</v>
-      </c>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4">
-        <v>7900.79052631579</v>
+      <c r="F57" s="3">
+        <v>8028.07</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3">
+        <v>4014.0349999999999</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -3690,27 +3695,27 @@
       <c r="AM57" s="1"/>
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="3">
+      <c r="A58" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="4">
         <v>1</v>
       </c>
-      <c r="F58" s="3">
-        <v>5933.4</v>
-      </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3">
-        <v>5905.4254596888259</v>
+      <c r="F58" s="4">
+        <v>4472.6999999999989</v>
+      </c>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4">
+        <v>3488.7059999999992</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -3745,25 +3750,27 @@
       <c r="AM58" s="1"/>
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" s="4">
-        <v>4</v>
-      </c>
-      <c r="F59" s="4">
-        <v>542600.43999999994</v>
-      </c>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4">
-        <v>358116.2904</v>
+      <c r="A59" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1</v>
+      </c>
+      <c r="F59" s="3">
+        <v>3683.4</v>
+      </c>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3">
+        <v>2873.0520000000001</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -3799,24 +3806,24 @@
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E60" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F60" s="3">
-        <v>237006</v>
+        <v>3111</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3">
-        <v>150992.64180000001</v>
+        <v>2426.58</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -3851,25 +3858,27 @@
       <c r="AM60" s="1"/>
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="4">
-        <v>2</v>
-      </c>
-      <c r="F61" s="4">
-        <v>47168.22</v>
-      </c>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4">
-        <v>36791.211600000002</v>
+      <c r="A61" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1176</v>
+      </c>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3">
+        <v>811.43999999999994</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -3904,25 +3913,27 @@
       <c r="AM61" s="1"/>
     </row>
     <row r="62" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" s="3">
-        <v>13</v>
-      </c>
-      <c r="F62" s="3">
-        <v>743968.62158560706</v>
-      </c>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3">
-        <v>740460.99017784849</v>
+      <c r="A62" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E62" s="4">
+        <v>4</v>
+      </c>
+      <c r="F62" s="4">
+        <v>487.58490566037727</v>
+      </c>
+      <c r="G62" s="4">
+        <v>2.95</v>
+      </c>
+      <c r="H62" s="4">
+        <v>331.5577358490566</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -3957,25 +3968,27 @@
       <c r="AM62" s="1"/>
     </row>
     <row r="63" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E63" s="4">
-        <v>13</v>
-      </c>
-      <c r="F63" s="4">
-        <v>139493.364</v>
-      </c>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4">
-        <v>108804.82392</v>
+      <c r="A63" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E63" s="3">
+        <v>3</v>
+      </c>
+      <c r="F63" s="3">
+        <v>330.56603773584908</v>
+      </c>
+      <c r="G63" s="3">
+        <v>2</v>
+      </c>
+      <c r="H63" s="3">
+        <v>224.7849056603774</v>
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -4011,24 +4024,26 @@
     </row>
     <row r="64" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E64" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F64" s="3">
-        <v>33776.87031798478</v>
-      </c>
-      <c r="G64" s="3"/>
+        <v>165.28301886792451</v>
+      </c>
+      <c r="G64" s="3">
+        <v>1</v>
+      </c>
       <c r="H64" s="3">
-        <v>26345.958848028131</v>
+        <v>112.3924528301887</v>
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -4063,25 +4078,25 @@
       <c r="AM64" s="1"/>
     </row>
     <row r="65" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4" t="s">
+      <c r="A65" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E65" s="4">
-        <v>3</v>
-      </c>
-      <c r="F65" s="4">
-        <v>103819.14</v>
-      </c>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4">
-        <v>103329.6579632249</v>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="3">
+        <v>13</v>
+      </c>
+      <c r="F65" s="3">
+        <v>743968.62158560706</v>
+      </c>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3">
+        <v>740460.99017784849</v>
       </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -4116,27 +4131,25 @@
       <c r="AM65" s="1"/>
     </row>
     <row r="66" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1</v>
-      </c>
-      <c r="F66" s="3">
-        <v>280</v>
-      </c>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3">
-        <v>193.2</v>
+      <c r="A66" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="4">
+        <v>4</v>
+      </c>
+      <c r="F66" s="4">
+        <v>542600.43999999994</v>
+      </c>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4">
+        <v>358116.2904</v>
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -4171,25 +4184,25 @@
       <c r="AM66" s="1"/>
     </row>
     <row r="67" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67" s="4">
-        <v>1</v>
-      </c>
-      <c r="F67" s="4">
-        <v>29296.162499999991</v>
-      </c>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4">
-        <v>21386.198625000001</v>
+      <c r="A67" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="3">
+        <v>4</v>
+      </c>
+      <c r="F67" s="3">
+        <v>237006</v>
+      </c>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3">
+        <v>150992.64180000001</v>
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -4224,25 +4237,25 @@
       <c r="AM67" s="1"/>
     </row>
     <row r="68" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3" t="s">
+      <c r="A68" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="3">
-        <v>4</v>
-      </c>
-      <c r="F68" s="3">
-        <v>330000</v>
-      </c>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3">
-        <v>304865.66765909089</v>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="4">
+        <v>13</v>
+      </c>
+      <c r="F68" s="4">
+        <v>139493.364</v>
+      </c>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4">
+        <v>108804.82392</v>
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -4278,26 +4291,24 @@
     </row>
     <row r="69" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E69" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F69" s="4">
-        <v>13440</v>
+        <v>103819.14</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4">
-        <v>9273.5999999999985</v>
+        <v>103329.6579632249</v>
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -4333,26 +4344,26 @@
     </row>
     <row r="70" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="D70" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E70" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F70" s="3">
-        <v>11273.46</v>
+        <v>105696.49435021239</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3">
-        <v>8813.7959999999985</v>
+        <v>72930.58110164656</v>
       </c>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -4387,25 +4398,27 @@
       <c r="AM70" s="1"/>
     </row>
     <row r="71" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" s="4">
-        <v>2</v>
-      </c>
-      <c r="F71" s="4">
-        <v>91528.659182879375</v>
-      </c>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4">
-        <v>59514.286506501288</v>
+      <c r="A71" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="3">
+        <v>7</v>
+      </c>
+      <c r="F71" s="3">
+        <v>73943.649000000005</v>
+      </c>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3">
+        <v>57933.360463201308</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -4440,25 +4453,25 @@
       <c r="AM71" s="1"/>
     </row>
     <row r="72" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3" t="s">
+      <c r="A72" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E72" s="3">
-        <v>1</v>
-      </c>
-      <c r="F72" s="3">
-        <v>70761.000209999998</v>
-      </c>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3">
-        <v>55322.236527818182</v>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="4">
+        <v>2</v>
+      </c>
+      <c r="F72" s="4">
+        <v>47168.22</v>
+      </c>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4">
+        <v>36791.211600000002</v>
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -4493,25 +4506,27 @@
       <c r="AM72" s="1"/>
     </row>
     <row r="73" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E73" s="4">
-        <v>1</v>
-      </c>
-      <c r="F73" s="4">
-        <v>2102.4</v>
-      </c>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4">
-        <v>1639.8720000000001</v>
+      <c r="A73" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" s="3">
+        <v>6</v>
+      </c>
+      <c r="F73" s="3">
+        <v>42980</v>
+      </c>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3">
+        <v>29656.2</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -4547,24 +4562,24 @@
     </row>
     <row r="74" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E74" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F74" s="3">
-        <v>68514.588000000003</v>
+        <v>33776.87031798478</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3">
-        <v>53441.378640000003</v>
+        <v>26345.958848028131</v>
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -4600,26 +4615,26 @@
     </row>
     <row r="75" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="D75" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="E75" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F75" s="4">
-        <v>308</v>
+        <v>30492</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4">
-        <v>212.52</v>
+        <v>21039.48</v>
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -4654,25 +4669,27 @@
       <c r="AM75" s="1"/>
     </row>
     <row r="76" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E76" s="3">
-        <v>1</v>
-      </c>
-      <c r="F76" s="3">
-        <v>9564.8071149999996</v>
-      </c>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3">
-        <v>7651.8456919999999</v>
+      <c r="A76" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="4">
+        <v>2</v>
+      </c>
+      <c r="F76" s="4">
+        <v>20240.98499999999</v>
+      </c>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4">
+        <v>15858.404284798689</v>
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -4708,26 +4725,26 @@
     </row>
     <row r="77" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C77" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="E77" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F77" s="4">
-        <v>1932</v>
+        <v>10877.9</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4">
-        <v>1333.08</v>
+        <v>7900.79052631579</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -4763,26 +4780,26 @@
     </row>
     <row r="78" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E78" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F78" s="3">
-        <v>7504</v>
+        <v>5933.4</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3">
-        <v>5177.76</v>
+        <v>5905.4254596888259</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -4818,26 +4835,26 @@
     </row>
     <row r="79" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E79" s="4">
         <v>12</v>
       </c>
-      <c r="D79" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" s="4">
-        <v>3</v>
-      </c>
       <c r="F79" s="4">
-        <v>20753.415000000001</v>
-      </c>
-      <c r="G79" s="4"/>
+        <v>2866.007547169811</v>
+      </c>
+      <c r="G79" s="4">
+        <v>17.34</v>
+      </c>
       <c r="H79" s="4">
-        <v>15223.79829431438</v>
+        <v>1948.885132075472</v>
       </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -4872,27 +4889,27 @@
       <c r="AM79" s="1"/>
     </row>
     <row r="80" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E80" s="3">
-        <v>1</v>
-      </c>
-      <c r="F80" s="3">
-        <v>631.44000000000017</v>
-      </c>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3">
-        <v>492.52320000000009</v>
+      <c r="A80" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="4">
+        <v>3</v>
+      </c>
+      <c r="F80" s="4">
+        <v>2561.8867924528299</v>
+      </c>
+      <c r="G80" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="H80" s="4">
+        <v>1742.0830188679249</v>
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -4928,26 +4945,26 @@
     </row>
     <row r="81" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="E81" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F81" s="4">
-        <v>11767.91</v>
-      </c>
-      <c r="G81" s="4"/>
+        <v>1942.075471698113</v>
+      </c>
+      <c r="G81" s="4">
+        <v>11.75</v>
+      </c>
       <c r="H81" s="4">
-        <v>8632.4245039018952</v>
+        <v>1320.6113207547171</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -4983,24 +5000,26 @@
     </row>
     <row r="82" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E82" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F82" s="3">
-        <v>106531.5</v>
-      </c>
-      <c r="G82" s="3"/>
+        <v>1578.4528301886789</v>
+      </c>
+      <c r="G82" s="3">
+        <v>9.5500000000000007</v>
+      </c>
       <c r="H82" s="3">
-        <v>77767.994999999995</v>
+        <v>1073.347924528302</v>
       </c>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -5036,24 +5055,26 @@
     </row>
     <row r="83" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E83" s="4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F83" s="4">
-        <v>534358.62325873482</v>
-      </c>
-      <c r="G83" s="4"/>
+        <v>793.35849056603774</v>
+      </c>
+      <c r="G83" s="4">
+        <v>4.8</v>
+      </c>
       <c r="H83" s="4">
-        <v>391982.13389548223</v>
+        <v>539.48377358490575</v>
       </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -5088,25 +5109,27 @@
       <c r="AM83" s="1"/>
     </row>
     <row r="84" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E84" s="3">
-        <v>8</v>
-      </c>
-      <c r="F84" s="3">
-        <v>7498.4427637420431</v>
-      </c>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3">
-        <v>5848.7853557187937</v>
+      <c r="A84" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E84" s="4">
+        <v>2</v>
+      </c>
+      <c r="F84" s="4">
+        <v>532.21132075471689</v>
+      </c>
+      <c r="G84" s="4">
+        <v>3.22</v>
+      </c>
+      <c r="H84" s="4">
+        <v>361.9036981132075</v>
       </c>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -5141,25 +5164,27 @@
       <c r="AM84" s="1"/>
     </row>
     <row r="85" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E85" s="4">
-        <v>5</v>
-      </c>
-      <c r="F85" s="4">
-        <v>136634.8076824341</v>
-      </c>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4">
-        <v>100229.3238071813</v>
+      <c r="A85" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E85" s="3">
+        <v>2</v>
+      </c>
+      <c r="F85" s="3">
+        <v>330.56603773584908</v>
+      </c>
+      <c r="G85" s="3">
+        <v>2</v>
+      </c>
+      <c r="H85" s="3">
+        <v>224.7849056603774</v>
       </c>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -5195,24 +5220,26 @@
     </row>
     <row r="86" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E86" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F86" s="3">
-        <v>1181.8497578662459</v>
-      </c>
-      <c r="G86" s="3"/>
+        <v>244.68498113207551</v>
+      </c>
+      <c r="G86" s="3">
+        <v>1.4803999999999999</v>
+      </c>
       <c r="H86" s="3">
-        <v>921.84281113567204</v>
+        <v>166.38578716981141</v>
       </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -5247,25 +5274,27 @@
       <c r="AM86" s="1"/>
     </row>
     <row r="87" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E87" s="4">
-        <v>1</v>
-      </c>
-      <c r="F87" s="4">
-        <v>198326.14249999999</v>
-      </c>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4">
-        <v>96518.722683333326</v>
+      <c r="A87" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E87" s="3">
+        <v>4</v>
+      </c>
+      <c r="F87" s="3">
+        <v>101.6490566037736</v>
+      </c>
+      <c r="G87" s="3">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="H87" s="3">
+        <v>69.121358490566038</v>
       </c>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
@@ -5301,24 +5330,24 @@
     </row>
     <row r="88" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E88" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F88" s="3">
-        <v>68608.320000000007</v>
+        <v>330000</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="3">
-        <v>47168.22</v>
+        <v>304865.66765909089</v>
       </c>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -5354,26 +5383,24 @@
     </row>
     <row r="89" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E89" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89" s="4">
-        <v>5880</v>
+        <v>29296.162499999991</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4">
-        <v>4057.2</v>
+        <v>21386.198625000001</v>
       </c>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
@@ -5409,26 +5436,26 @@
     </row>
     <row r="90" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="D90" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E90" s="3">
         <v>1</v>
       </c>
       <c r="F90" s="3">
-        <v>17836</v>
+        <v>280</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3">
-        <v>12306.84</v>
+        <v>193.2</v>
       </c>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
@@ -5463,27 +5490,27 @@
       <c r="AM90" s="1"/>
     </row>
     <row r="91" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A91" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" s="4">
+      <c r="A91" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91" s="3">
         <v>1</v>
       </c>
-      <c r="F91" s="4">
-        <v>31172.825000000001</v>
-      </c>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4">
-        <v>25561.716499999999</v>
+      <c r="F91" s="3">
+        <v>165.28301886792451</v>
+      </c>
+      <c r="G91" s="3">
+        <v>1</v>
+      </c>
+      <c r="H91" s="3">
+        <v>112.3924528301887</v>
       </c>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
@@ -5518,27 +5545,25 @@
       <c r="AM91" s="1"/>
     </row>
     <row r="92" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="3" t="s">
+      <c r="A92" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="3">
+      <c r="C92" s="4"/>
+      <c r="D92" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" s="4">
         <v>2</v>
       </c>
-      <c r="F92" s="3">
-        <v>38961.760999999999</v>
-      </c>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3">
-        <v>35445.469918614021</v>
+      <c r="F92" s="4">
+        <v>91528.659182879375</v>
+      </c>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4">
+        <v>59514.286506501288</v>
       </c>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
@@ -5573,27 +5598,25 @@
       <c r="AM92" s="1"/>
     </row>
     <row r="93" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" s="4">
-        <v>3</v>
-      </c>
-      <c r="F93" s="4">
-        <v>30203.439999999999</v>
-      </c>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4">
-        <v>28364.901880321089</v>
+      <c r="A93" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="3">
+        <v>1</v>
+      </c>
+      <c r="F93" s="3">
+        <v>70761.000209999998</v>
+      </c>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3">
+        <v>55322.236527818182</v>
       </c>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
@@ -5629,26 +5652,24 @@
     </row>
     <row r="94" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C94" s="3"/>
       <c r="D94" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E94" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F94" s="3">
-        <v>36580</v>
+        <v>68514.588000000003</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3">
-        <v>27549.494714300541</v>
+        <v>53441.378640000003</v>
       </c>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
@@ -5684,24 +5705,26 @@
     </row>
     <row r="95" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C95" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D95" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E95" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95" s="4">
-        <v>533367.71</v>
+        <v>13440</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="4">
-        <v>261473.28096666661</v>
+        <v>9273.5999999999985</v>
       </c>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
@@ -5737,24 +5760,26 @@
     </row>
     <row r="96" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C96" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D96" s="3" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E96" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F96" s="3">
-        <v>60984</v>
+        <v>11273.46</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3">
-        <v>20742.867921059209</v>
+        <v>8813.7959999999985</v>
       </c>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
@@ -5790,24 +5815,24 @@
     </row>
     <row r="97" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E97" s="4">
         <v>1</v>
       </c>
       <c r="F97" s="4">
-        <v>560.64</v>
+        <v>2102.4</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4">
-        <v>437.29919999999998</v>
+        <v>1639.8720000000001</v>
       </c>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
@@ -5842,25 +5867,27 @@
       <c r="AM97" s="1"/>
     </row>
     <row r="98" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E98" s="3">
-        <v>4</v>
-      </c>
-      <c r="F98" s="3">
-        <v>384703</v>
-      </c>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3">
-        <v>332210.92885614198</v>
+      <c r="A98" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E98" s="4">
+        <v>1</v>
+      </c>
+      <c r="F98" s="4">
+        <v>991.69811320754718</v>
+      </c>
+      <c r="G98" s="4">
+        <v>6</v>
+      </c>
+      <c r="H98" s="4">
+        <v>674.35471698113213</v>
       </c>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
@@ -5895,25 +5922,27 @@
       <c r="AM98" s="1"/>
     </row>
     <row r="99" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E99" s="4">
-        <v>2</v>
-      </c>
-      <c r="F99" s="4">
-        <v>17791.454880000001</v>
-      </c>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4">
-        <v>13877.3348064</v>
+      <c r="A99" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E99" s="3">
+        <v>1</v>
+      </c>
+      <c r="F99" s="3">
+        <v>115.69811320754719</v>
+      </c>
+      <c r="G99" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="H99" s="3">
+        <v>78.674716981132079</v>
       </c>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
@@ -5949,24 +5978,24 @@
     </row>
     <row r="100" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E100" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F100" s="3">
-        <v>235780</v>
+        <v>9564.8071149999996</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3">
-        <v>185677.75200000001</v>
+        <v>7651.8456919999999</v>
       </c>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
@@ -6002,24 +6031,26 @@
     </row>
     <row r="101" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C101" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D101" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E101" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F101" s="4">
-        <v>24980.965</v>
+        <v>308</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4">
-        <v>22726.437941176471</v>
+        <v>212.52</v>
       </c>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
@@ -6055,24 +6086,24 @@
     </row>
     <row r="102" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E102" s="4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F102" s="4">
-        <v>4746</v>
+        <v>534358.62325873482</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4">
-        <v>4318.8600000000006</v>
+        <v>391982.13389548223</v>
       </c>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
@@ -6107,27 +6138,25 @@
       <c r="AM102" s="1"/>
     </row>
     <row r="103" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E103" s="3">
-        <v>2</v>
-      </c>
-      <c r="F103" s="3">
-        <v>9128</v>
-      </c>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3">
-        <v>6298.32</v>
+      <c r="A103" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" s="4">
+        <v>5</v>
+      </c>
+      <c r="F103" s="4">
+        <v>136634.8076824341</v>
+      </c>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4">
+        <v>100229.3238071813</v>
       </c>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
@@ -6162,27 +6191,25 @@
       <c r="AM103" s="1"/>
     </row>
     <row r="104" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E104" s="4">
+      <c r="A104" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" s="3">
         <v>1</v>
       </c>
-      <c r="F104" s="4">
-        <v>1120</v>
-      </c>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4">
-        <v>772.8</v>
+      <c r="F104" s="3">
+        <v>106531.5</v>
+      </c>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3">
+        <v>77767.994999999995</v>
       </c>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
@@ -6217,27 +6244,27 @@
       <c r="AM104" s="1"/>
     </row>
     <row r="105" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A105" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E105" s="3">
-        <v>1</v>
-      </c>
-      <c r="F105" s="3">
-        <v>10248.6</v>
-      </c>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3">
-        <v>6892.8637168141586</v>
+      <c r="A105" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="4">
+        <v>3</v>
+      </c>
+      <c r="F105" s="4">
+        <v>20753.415000000001</v>
+      </c>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4">
+        <v>15223.79829431438</v>
       </c>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
@@ -6273,24 +6300,26 @@
     </row>
     <row r="106" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C106" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="D106" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E106" s="4">
         <v>1</v>
       </c>
       <c r="F106" s="4">
-        <v>88776.25</v>
+        <v>11767.91</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="4">
-        <v>64806.662499999999</v>
+        <v>8632.4245039018952</v>
       </c>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
@@ -6326,24 +6355,24 @@
     </row>
     <row r="107" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E107" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F107" s="3">
-        <v>124740</v>
+        <v>7498.4427637420431</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="3">
-        <v>42428.593474893831</v>
+        <v>5848.7853557187937</v>
       </c>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
@@ -6378,25 +6407,27 @@
       <c r="AM107" s="1"/>
     </row>
     <row r="108" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A108" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" s="4">
-        <v>1</v>
-      </c>
-      <c r="F108" s="4">
-        <v>1577.9192334017789</v>
-      </c>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4">
-        <v>1230.7770020533881</v>
+      <c r="A108" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="3">
+        <v>4</v>
+      </c>
+      <c r="F108" s="3">
+        <v>7504</v>
+      </c>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3">
+        <v>5177.76</v>
       </c>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
@@ -6431,25 +6462,27 @@
       <c r="AM108" s="1"/>
     </row>
     <row r="109" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E109" s="3">
-        <v>1</v>
-      </c>
-      <c r="F109" s="3">
-        <v>50936.170212765952</v>
-      </c>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3">
-        <v>34257.955187347012</v>
+      <c r="A109" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E109" s="4">
+        <v>3</v>
+      </c>
+      <c r="F109" s="4">
+        <v>1932</v>
+      </c>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4">
+        <v>1333.08</v>
       </c>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
@@ -6484,27 +6517,25 @@
       <c r="AM109" s="1"/>
     </row>
     <row r="110" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A110" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E110" s="4">
+      <c r="A110" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E110" s="3">
         <v>1</v>
       </c>
-      <c r="F110" s="4">
-        <v>5208</v>
-      </c>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4">
-        <v>3593.52</v>
+      <c r="F110" s="3">
+        <v>1181.8497578662459</v>
+      </c>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3">
+        <v>921.84281113567204</v>
       </c>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
@@ -6540,26 +6571,26 @@
     </row>
     <row r="111" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E111" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F111" s="3">
-        <v>5985.0159999999996</v>
+        <v>631.44000000000017</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3">
-        <v>4129.66104</v>
+        <v>492.52320000000009</v>
       </c>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
@@ -6595,26 +6626,26 @@
     </row>
     <row r="112" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C112" s="4"/>
       <c r="D112" s="4" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E112" s="4">
         <v>1</v>
       </c>
       <c r="F112" s="4">
-        <v>11956.7</v>
-      </c>
-      <c r="G112" s="4"/>
+        <v>247.9245283018868</v>
+      </c>
+      <c r="G112" s="4">
+        <v>1.5</v>
+      </c>
       <c r="H112" s="4">
-        <v>9804.4939999999988</v>
+        <v>168.588679245283</v>
       </c>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
@@ -6650,24 +6681,26 @@
     </row>
     <row r="113" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E113" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F113" s="3">
-        <v>601694</v>
-      </c>
-      <c r="G113" s="3"/>
+        <v>198.33962264150941</v>
+      </c>
+      <c r="G113" s="3">
+        <v>1.2</v>
+      </c>
       <c r="H113" s="3">
-        <v>374371.74871428573</v>
+        <v>134.87094339622641</v>
       </c>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
@@ -6703,24 +6736,24 @@
     </row>
     <row r="114" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E114" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F114" s="4">
-        <v>10879.92</v>
+        <v>198326.14249999999</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="4">
-        <v>8486.3376000000007</v>
+        <v>96518.722683333326</v>
       </c>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
@@ -6756,24 +6789,24 @@
     </row>
     <row r="115" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E115" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F115" s="3">
-        <v>459850</v>
+        <v>68608.320000000007</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="3">
-        <v>377076.9176164887</v>
+        <v>47168.22</v>
       </c>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
@@ -6808,25 +6841,25 @@
       <c r="AM115" s="1"/>
     </row>
     <row r="116" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A116" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E116" s="4">
-        <v>2</v>
-      </c>
-      <c r="F116" s="4">
-        <v>7621.2</v>
-      </c>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4">
-        <v>5944.5360000000001</v>
+      <c r="A116" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" s="3">
+        <v>4</v>
+      </c>
+      <c r="F116" s="3">
+        <v>384703</v>
+      </c>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3">
+        <v>332210.92885614198</v>
       </c>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
@@ -6861,25 +6894,25 @@
       <c r="AM116" s="1"/>
     </row>
     <row r="117" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A117" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B117" s="3" t="s">
+      <c r="A117" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E117" s="3">
-        <v>1</v>
-      </c>
-      <c r="F117" s="3">
-        <v>1576.8</v>
-      </c>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3">
-        <v>1229.904</v>
+      <c r="E117" s="4">
+        <v>2</v>
+      </c>
+      <c r="F117" s="4">
+        <v>533367.71</v>
+      </c>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4">
+        <v>261473.28096666661</v>
       </c>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
@@ -6914,27 +6947,25 @@
       <c r="AM117" s="1"/>
     </row>
     <row r="118" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A118" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C118" s="4" t="s">
+      <c r="A118" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D118" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E118" s="4">
-        <v>1</v>
-      </c>
-      <c r="F118" s="4">
-        <v>3976</v>
-      </c>
-      <c r="G118" s="4"/>
-      <c r="H118" s="4">
-        <v>2743.44</v>
+      <c r="E118" s="3">
+        <v>5</v>
+      </c>
+      <c r="F118" s="3">
+        <v>235780</v>
+      </c>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3">
+        <v>185677.75200000001</v>
       </c>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
@@ -6970,26 +7001,26 @@
     </row>
     <row r="119" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C119" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D119" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E119" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F119" s="3">
-        <v>7003.21</v>
+        <v>38961.760999999999</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3">
-        <v>6349.5770666666667</v>
+        <v>35445.469918614021</v>
       </c>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
@@ -7025,26 +7056,26 @@
     </row>
     <row r="120" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E120" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F120" s="4">
-        <v>947.16</v>
+        <v>30203.439999999999</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="4">
-        <v>738.78480000000002</v>
+        <v>28364.901880321089</v>
       </c>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
@@ -7080,24 +7111,26 @@
     </row>
     <row r="121" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C121" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D121" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E121" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F121" s="3">
-        <v>87600</v>
+        <v>36580</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3">
-        <v>87600</v>
+        <v>27549.494714300541</v>
       </c>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
@@ -7133,24 +7166,26 @@
     </row>
     <row r="122" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C122" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D122" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E122" s="4">
         <v>1</v>
       </c>
       <c r="F122" s="4">
-        <v>11350</v>
+        <v>31172.825000000001</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="4">
-        <v>8853.0000000000018</v>
+        <v>25561.716499999999</v>
       </c>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
@@ -7185,27 +7220,25 @@
       <c r="AM122" s="1"/>
     </row>
     <row r="123" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A123" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="3">
+      <c r="A123" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" s="4">
         <v>2</v>
       </c>
-      <c r="F123" s="3">
-        <v>5656</v>
-      </c>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3">
-        <v>3902.639999999999</v>
+      <c r="F123" s="4">
+        <v>24980.965</v>
+      </c>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4">
+        <v>22726.437941176471</v>
       </c>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
@@ -7240,25 +7273,25 @@
       <c r="AM123" s="1"/>
     </row>
     <row r="124" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A124" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E124" s="4">
+      <c r="A124" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E124" s="3">
         <v>1</v>
       </c>
-      <c r="F124" s="4">
-        <v>123221.435</v>
-      </c>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4">
-        <v>44975.82377499999</v>
+      <c r="F124" s="3">
+        <v>60984</v>
+      </c>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3">
+        <v>20742.867921059209</v>
       </c>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
@@ -7293,25 +7326,25 @@
       <c r="AM124" s="1"/>
     </row>
     <row r="125" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A125" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E125" s="3">
-        <v>1</v>
-      </c>
-      <c r="F125" s="3">
-        <v>41735.925000000003</v>
-      </c>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3">
-        <v>14195.9002334749</v>
+      <c r="A125" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E125" s="4">
+        <v>2</v>
+      </c>
+      <c r="F125" s="4">
+        <v>17791.454880000001</v>
+      </c>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4">
+        <v>13877.3348064</v>
       </c>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
@@ -7346,25 +7379,27 @@
       <c r="AM125" s="1"/>
     </row>
     <row r="126" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A126" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E126" s="4">
-        <v>3</v>
-      </c>
-      <c r="F126" s="4">
-        <v>76741.86671128434</v>
-      </c>
-      <c r="G126" s="4"/>
-      <c r="H126" s="4">
-        <v>71260.304803335472</v>
+      <c r="A126" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E126" s="3">
+        <v>1</v>
+      </c>
+      <c r="F126" s="3">
+        <v>17836</v>
+      </c>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3">
+        <v>12306.84</v>
       </c>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
@@ -7399,27 +7434,25 @@
       <c r="AM126" s="1"/>
     </row>
     <row r="127" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A127" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E127" s="3">
+      <c r="A127" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E127" s="4">
         <v>1</v>
       </c>
-      <c r="F127" s="3">
-        <v>1955.3607118412051</v>
-      </c>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3">
-        <v>1349.1988911704309</v>
+      <c r="F127" s="4">
+        <v>4746</v>
+      </c>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4">
+        <v>4318.8600000000006</v>
       </c>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
@@ -7455,26 +7488,26 @@
     </row>
     <row r="128" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B128" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C128" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="D128" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E128" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F128" s="4">
-        <v>3843.2249999999999</v>
+        <v>5880</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4">
-        <v>3402.1991803278688</v>
+        <v>4057.2</v>
       </c>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
@@ -7509,25 +7542,27 @@
       <c r="AM128" s="1"/>
     </row>
     <row r="129" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A129" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E129" s="3">
-        <v>1</v>
-      </c>
-      <c r="F129" s="3">
-        <v>102980.45</v>
-      </c>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3">
-        <v>8468.7469571428519</v>
+      <c r="A129" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E129" s="4">
+        <v>3</v>
+      </c>
+      <c r="F129" s="4">
+        <v>710.71698113207549</v>
+      </c>
+      <c r="G129" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="H129" s="4">
+        <v>483.28754716981138</v>
       </c>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
@@ -7563,24 +7598,24 @@
     </row>
     <row r="130" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E130" s="4">
         <v>1</v>
       </c>
       <c r="F130" s="4">
-        <v>308.78850102669401</v>
+        <v>560.64</v>
       </c>
       <c r="G130" s="4"/>
       <c r="H130" s="4">
-        <v>240.85503080082131</v>
+        <v>437.29919999999998</v>
       </c>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
@@ -7615,25 +7650,25 @@
       <c r="AM130" s="1"/>
     </row>
     <row r="131" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A131" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B131" s="3" t="s">
+      <c r="A131" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E131" s="3">
+      <c r="E131" s="4">
         <v>1</v>
       </c>
-      <c r="F131" s="3">
-        <v>112103</v>
-      </c>
-      <c r="G131" s="3"/>
-      <c r="H131" s="3">
-        <v>91614.445248594595</v>
+      <c r="F131" s="4">
+        <v>88776.25</v>
+      </c>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4">
+        <v>64806.662499999999</v>
       </c>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
@@ -7668,25 +7703,25 @@
       <c r="AM131" s="1"/>
     </row>
     <row r="132" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A132" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E132" s="4">
+      <c r="A132" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E132" s="3">
         <v>1</v>
       </c>
-      <c r="F132" s="4">
-        <v>669.54140999315541</v>
-      </c>
-      <c r="G132" s="4"/>
-      <c r="H132" s="4">
-        <v>522.24229979466122</v>
+      <c r="F132" s="3">
+        <v>124740</v>
+      </c>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3">
+        <v>42428.593474893831</v>
       </c>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
@@ -7722,26 +7757,24 @@
     </row>
     <row r="133" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C133" s="3"/>
       <c r="D133" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E133" s="3">
         <v>1</v>
       </c>
       <c r="F133" s="3">
-        <v>448</v>
+        <v>50936.170212765952</v>
       </c>
       <c r="G133" s="3"/>
       <c r="H133" s="3">
-        <v>309.12</v>
+        <v>34257.955187347012</v>
       </c>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
@@ -7776,25 +7809,27 @@
       <c r="AM133" s="1"/>
     </row>
     <row r="134" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A134" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4" t="s">
+      <c r="A134" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E134" s="4">
+      <c r="D134" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" s="3">
         <v>1</v>
       </c>
-      <c r="F134" s="4">
-        <v>1971</v>
-      </c>
-      <c r="G134" s="4"/>
-      <c r="H134" s="4">
-        <v>1537.38</v>
+      <c r="F134" s="3">
+        <v>10248.6</v>
+      </c>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3">
+        <v>6892.8637168141586</v>
       </c>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
@@ -7830,26 +7865,26 @@
     </row>
     <row r="135" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B135" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C135" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="D135" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E135" s="3">
         <v>2</v>
       </c>
       <c r="F135" s="3">
-        <v>1400</v>
+        <v>9128</v>
       </c>
       <c r="G135" s="3"/>
       <c r="H135" s="3">
-        <v>966</v>
+        <v>6298.32</v>
       </c>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
@@ -7885,26 +7920,24 @@
     </row>
     <row r="136" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C136" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D136" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="E136" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F136" s="4">
-        <v>10052</v>
+        <v>1577.9192334017789</v>
       </c>
       <c r="G136" s="4"/>
       <c r="H136" s="4">
-        <v>6935.8799999999992</v>
+        <v>1230.7770020533881</v>
       </c>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
@@ -7939,27 +7972,27 @@
       <c r="AM136" s="1"/>
     </row>
     <row r="137" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A137" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E137" s="3">
-        <v>1</v>
-      </c>
-      <c r="F137" s="3">
-        <v>11529.674999999999</v>
-      </c>
-      <c r="G137" s="3"/>
-      <c r="H137" s="3">
-        <v>9225.1893620364535</v>
+      <c r="A137" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E137" s="4">
+        <v>2</v>
+      </c>
+      <c r="F137" s="4">
+        <v>1239.6226415094341</v>
+      </c>
+      <c r="G137" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="H137" s="4">
+        <v>842.94339622641519</v>
       </c>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
@@ -7995,26 +8028,26 @@
     </row>
     <row r="138" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B138" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C138" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="D138" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E138" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F138" s="4">
-        <v>13733.124</v>
+        <v>1120</v>
       </c>
       <c r="G138" s="4"/>
       <c r="H138" s="4">
-        <v>10988.22555122564</v>
+        <v>772.8</v>
       </c>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
@@ -8050,26 +8083,26 @@
     </row>
     <row r="139" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C139" s="3"/>
       <c r="D139" s="3" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="E139" s="3">
         <v>1</v>
       </c>
       <c r="F139" s="3">
-        <v>2367.9</v>
-      </c>
-      <c r="G139" s="3"/>
+        <v>115.69811320754719</v>
+      </c>
+      <c r="G139" s="3">
+        <v>0.7</v>
+      </c>
       <c r="H139" s="3">
-        <v>1846.962</v>
+        <v>78.674716981132079</v>
       </c>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
@@ -8104,27 +8137,25 @@
       <c r="AM139" s="1"/>
     </row>
     <row r="140" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A140" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E140" s="4">
-        <v>1</v>
-      </c>
-      <c r="F140" s="4">
-        <v>229.69450000000001</v>
-      </c>
-      <c r="G140" s="4"/>
-      <c r="H140" s="4">
-        <v>179.16171</v>
+      <c r="A140" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140" s="3">
+        <v>4</v>
+      </c>
+      <c r="F140" s="3">
+        <v>459850</v>
+      </c>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3">
+        <v>377076.9176164887</v>
       </c>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
@@ -8160,26 +8191,24 @@
     </row>
     <row r="141" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C141" s="3"/>
       <c r="D141" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E141" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F141" s="3">
-        <v>8900.1</v>
+        <v>601694</v>
       </c>
       <c r="G141" s="3"/>
       <c r="H141" s="3">
-        <v>7878.7770491803276</v>
+        <v>374371.74871428573</v>
       </c>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
@@ -8215,24 +8244,26 @@
     </row>
     <row r="142" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C142" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D142" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E142" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F142" s="4">
-        <v>108129.4725</v>
+        <v>11956.7</v>
       </c>
       <c r="G142" s="4"/>
       <c r="H142" s="4">
-        <v>66298.560063571465</v>
+        <v>9804.4939999999988</v>
       </c>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
@@ -8267,25 +8298,25 @@
       <c r="AM142" s="1"/>
     </row>
     <row r="143" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A143" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C143" s="3"/>
-      <c r="D143" s="3" t="s">
+      <c r="A143" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B143" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E143" s="3">
-        <v>8</v>
-      </c>
-      <c r="F143" s="3">
-        <v>468686</v>
-      </c>
-      <c r="G143" s="3"/>
-      <c r="H143" s="3">
-        <v>374076.21980456362</v>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143" s="4">
+        <v>3</v>
+      </c>
+      <c r="F143" s="4">
+        <v>10879.92</v>
+      </c>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4">
+        <v>8486.3376000000007</v>
       </c>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
@@ -8321,24 +8352,24 @@
     </row>
     <row r="144" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E144" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F144" s="4">
-        <v>43334.491121762359</v>
+        <v>7621.2</v>
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="4">
-        <v>33800.903074974638</v>
+        <v>5944.5360000000001</v>
       </c>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
@@ -8374,24 +8405,26 @@
     </row>
     <row r="145" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C145" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D145" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E145" s="3">
         <v>2</v>
       </c>
       <c r="F145" s="3">
-        <v>8863.8731839968459</v>
+        <v>5985.0159999999996</v>
       </c>
       <c r="G145" s="3"/>
       <c r="H145" s="3">
-        <v>6913.8210835175414</v>
+        <v>4129.66104</v>
       </c>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
@@ -8427,24 +8460,26 @@
     </row>
     <row r="146" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C146" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D146" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E146" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F146" s="4">
-        <v>115670.63450517091</v>
+        <v>5208</v>
       </c>
       <c r="G146" s="4"/>
       <c r="H146" s="4">
-        <v>92551.048224439088</v>
+        <v>3593.52</v>
       </c>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
@@ -8480,26 +8515,24 @@
     </row>
     <row r="147" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C147" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="E147" s="3">
         <v>1</v>
       </c>
       <c r="F147" s="3">
-        <v>3444</v>
+        <v>1576.8</v>
       </c>
       <c r="G147" s="3"/>
       <c r="H147" s="3">
-        <v>2376.36</v>
+        <v>1229.904</v>
       </c>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
@@ -8534,27 +8567,25 @@
       <c r="AM147" s="1"/>
     </row>
     <row r="148" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A148" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C148" s="4" t="s">
+      <c r="A148" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D148" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E148" s="4">
+      <c r="E148" s="3">
         <v>1</v>
       </c>
-      <c r="F148" s="4">
-        <v>10675.625</v>
-      </c>
-      <c r="G148" s="4"/>
-      <c r="H148" s="4">
-        <v>8676.8846365638765</v>
+      <c r="F148" s="3">
+        <v>87600</v>
+      </c>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3">
+        <v>87600</v>
       </c>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
@@ -8589,27 +8620,25 @@
       <c r="AM148" s="1"/>
     </row>
     <row r="149" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A149" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E149" s="3">
+      <c r="A149" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E149" s="4">
         <v>1</v>
       </c>
-      <c r="F149" s="3">
-        <v>2697</v>
-      </c>
-      <c r="G149" s="3"/>
-      <c r="H149" s="3">
-        <v>2103.66</v>
+      <c r="F149" s="4">
+        <v>11350</v>
+      </c>
+      <c r="G149" s="4"/>
+      <c r="H149" s="4">
+        <v>8853.0000000000018</v>
       </c>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
@@ -8644,27 +8673,27 @@
       <c r="AM149" s="1"/>
     </row>
     <row r="150" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A150" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D150" s="4" t="s">
+      <c r="A150" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E150" s="4">
+      <c r="D150" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" s="3">
         <v>1</v>
       </c>
-      <c r="F150" s="4">
-        <v>26065.505312000001</v>
-      </c>
-      <c r="G150" s="4"/>
-      <c r="H150" s="4">
-        <v>20331.094143359998</v>
+      <c r="F150" s="3">
+        <v>7003.21</v>
+      </c>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3">
+        <v>6349.5770666666667</v>
       </c>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
@@ -8699,25 +8728,27 @@
       <c r="AM150" s="1"/>
     </row>
     <row r="151" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A151" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E151" s="3">
-        <v>3</v>
-      </c>
-      <c r="F151" s="3">
-        <v>42307.65</v>
-      </c>
-      <c r="G151" s="3"/>
-      <c r="H151" s="3">
-        <v>14390.364620234821</v>
+      <c r="A151" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E151" s="4">
+        <v>1</v>
+      </c>
+      <c r="F151" s="4">
+        <v>3976</v>
+      </c>
+      <c r="G151" s="4"/>
+      <c r="H151" s="4">
+        <v>2743.44</v>
       </c>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
@@ -8753,24 +8784,26 @@
     </row>
     <row r="152" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C152" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D152" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E152" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F152" s="4">
-        <v>154804.46171428569</v>
+        <v>947.16</v>
       </c>
       <c r="G152" s="4"/>
       <c r="H152" s="4">
-        <v>125821.24751667721</v>
+        <v>738.78480000000002</v>
       </c>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
@@ -8805,25 +8838,25 @@
       <c r="AM152" s="1"/>
     </row>
     <row r="153" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A153" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C153" s="3"/>
-      <c r="D153" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E153" s="3">
-        <v>4</v>
-      </c>
-      <c r="F153" s="3">
-        <v>682.18499999999995</v>
-      </c>
-      <c r="G153" s="3"/>
-      <c r="H153" s="3">
-        <v>532.10430000000008</v>
+      <c r="A153" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E153" s="4">
+        <v>3</v>
+      </c>
+      <c r="F153" s="4">
+        <v>76741.86671128434</v>
+      </c>
+      <c r="G153" s="4"/>
+      <c r="H153" s="4">
+        <v>71260.304803335472</v>
       </c>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
@@ -8859,26 +8892,24 @@
     </row>
     <row r="154" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C154" s="4"/>
       <c r="D154" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E154" s="4">
         <v>1</v>
       </c>
       <c r="F154" s="4">
-        <v>1316</v>
+        <v>123221.435</v>
       </c>
       <c r="G154" s="4"/>
       <c r="H154" s="4">
-        <v>908.04</v>
+        <v>44975.82377499999</v>
       </c>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
@@ -8914,24 +8945,24 @@
     </row>
     <row r="155" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E155" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F155" s="3">
-        <v>6772.5144</v>
+        <v>41735.925000000003</v>
       </c>
       <c r="G155" s="3"/>
       <c r="H155" s="3">
-        <v>5282.561232</v>
+        <v>14195.9002334749</v>
       </c>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
@@ -8966,25 +8997,27 @@
       <c r="AM155" s="1"/>
     </row>
     <row r="156" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A156" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C156" s="4"/>
-      <c r="D156" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E156" s="4">
-        <v>1</v>
-      </c>
-      <c r="F156" s="4">
-        <v>13750</v>
-      </c>
-      <c r="G156" s="4"/>
-      <c r="H156" s="4">
-        <v>12334.558823529411</v>
+      <c r="A156" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E156" s="3">
+        <v>2</v>
+      </c>
+      <c r="F156" s="3">
+        <v>5656</v>
+      </c>
+      <c r="G156" s="3"/>
+      <c r="H156" s="3">
+        <v>3902.639999999999</v>
       </c>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
@@ -9020,24 +9053,24 @@
     </row>
     <row r="157" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E157" s="3">
         <v>1</v>
       </c>
       <c r="F157" s="3">
-        <v>600</v>
+        <v>112103</v>
       </c>
       <c r="G157" s="3"/>
       <c r="H157" s="3">
-        <v>468</v>
+        <v>91614.445248594595</v>
       </c>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
@@ -9072,27 +9105,25 @@
       <c r="AM157" s="1"/>
     </row>
     <row r="158" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A158" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D158" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E158" s="4">
-        <v>2</v>
-      </c>
-      <c r="F158" s="4">
-        <v>1428</v>
-      </c>
-      <c r="G158" s="4"/>
-      <c r="H158" s="4">
-        <v>985.31999999999994</v>
+      <c r="A158" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E158" s="3">
+        <v>1</v>
+      </c>
+      <c r="F158" s="3">
+        <v>102980.45</v>
+      </c>
+      <c r="G158" s="3"/>
+      <c r="H158" s="3">
+        <v>8468.7469571428519</v>
       </c>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
@@ -9127,27 +9158,27 @@
       <c r="AM158" s="1"/>
     </row>
     <row r="159" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A159" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E159" s="3">
+      <c r="A159" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E159" s="4">
         <v>1</v>
       </c>
-      <c r="F159" s="3">
-        <v>12040</v>
-      </c>
-      <c r="G159" s="3"/>
-      <c r="H159" s="3">
-        <v>8307.5999999999985</v>
+      <c r="F159" s="4">
+        <v>3843.2249999999999</v>
+      </c>
+      <c r="G159" s="4"/>
+      <c r="H159" s="4">
+        <v>3402.1991803278688</v>
       </c>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
@@ -9182,27 +9213,27 @@
       <c r="AM159" s="1"/>
     </row>
     <row r="160" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A160" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B160" s="4" t="s">
+      <c r="A160" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C160" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E160" s="4">
+      <c r="D160" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160" s="3">
         <v>1</v>
       </c>
-      <c r="F160" s="4">
-        <v>13425.665999999999</v>
-      </c>
-      <c r="G160" s="4"/>
-      <c r="H160" s="4">
-        <v>0</v>
+      <c r="F160" s="3">
+        <v>1955.3607118412051</v>
+      </c>
+      <c r="G160" s="3"/>
+      <c r="H160" s="3">
+        <v>1349.1988911704309</v>
       </c>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
@@ -9237,27 +9268,25 @@
       <c r="AM160" s="1"/>
     </row>
     <row r="161" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A161" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D161" s="3" t="s">
+      <c r="A161" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B161" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E161" s="3">
-        <v>2</v>
-      </c>
-      <c r="F161" s="3">
-        <v>25109.07</v>
-      </c>
-      <c r="G161" s="3"/>
-      <c r="H161" s="3">
-        <v>20432.4806235012</v>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E161" s="4">
+        <v>1</v>
+      </c>
+      <c r="F161" s="4">
+        <v>669.54140999315541</v>
+      </c>
+      <c r="G161" s="4"/>
+      <c r="H161" s="4">
+        <v>522.24229979466122</v>
       </c>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
@@ -9293,24 +9322,24 @@
     </row>
     <row r="162" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E162" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F162" s="4">
-        <v>207736.42499999999</v>
+        <v>308.78850102669401</v>
       </c>
       <c r="G162" s="4"/>
       <c r="H162" s="4">
-        <v>118380.17016666671</v>
+        <v>240.85503080082131</v>
       </c>
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
@@ -9345,25 +9374,25 @@
       <c r="AM162" s="1"/>
     </row>
     <row r="163" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A163" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C163" s="3"/>
-      <c r="D163" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E163" s="3">
-        <v>4</v>
-      </c>
-      <c r="F163" s="3">
-        <v>54590.286599999992</v>
-      </c>
-      <c r="G163" s="3"/>
-      <c r="H163" s="3">
-        <v>42580.423547999999</v>
+      <c r="A163" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163" s="4"/>
+      <c r="D163" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E163" s="4">
+        <v>1</v>
+      </c>
+      <c r="F163" s="4">
+        <v>1971</v>
+      </c>
+      <c r="G163" s="4"/>
+      <c r="H163" s="4">
+        <v>1537.38</v>
       </c>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
@@ -9398,25 +9427,27 @@
       <c r="AM163" s="1"/>
     </row>
     <row r="164" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A164" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C164" s="4"/>
-      <c r="D164" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E164" s="4">
-        <v>7</v>
-      </c>
-      <c r="F164" s="4">
-        <v>369575.4899328571</v>
-      </c>
-      <c r="G164" s="4"/>
-      <c r="H164" s="4">
-        <v>300741.68565279659</v>
+      <c r="A164" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E164" s="3">
+        <v>1</v>
+      </c>
+      <c r="F164" s="3">
+        <v>448</v>
+      </c>
+      <c r="G164" s="3"/>
+      <c r="H164" s="3">
+        <v>309.12</v>
       </c>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
@@ -9452,24 +9483,24 @@
     </row>
     <row r="165" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E165" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F165" s="3">
-        <v>5554.0998799999998</v>
+        <v>468686</v>
       </c>
       <c r="G165" s="3"/>
       <c r="H165" s="3">
-        <v>4332.1979063999997</v>
+        <v>374076.21980456362</v>
       </c>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
@@ -9505,24 +9536,24 @@
     </row>
     <row r="166" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E166" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F166" s="4">
-        <v>93094.787484047643</v>
+        <v>115670.63450517091</v>
       </c>
       <c r="G166" s="4"/>
       <c r="H166" s="4">
-        <v>72613.934237557158</v>
+        <v>92551.048224439088</v>
       </c>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
@@ -9557,27 +9588,25 @@
       <c r="AM166" s="1"/>
     </row>
     <row r="167" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A167" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E167" s="3">
-        <v>2</v>
-      </c>
-      <c r="F167" s="3">
-        <v>173.54716981132071</v>
-      </c>
-      <c r="G167" s="3">
-        <v>1.05</v>
-      </c>
-      <c r="H167" s="3">
-        <v>118.0120754716981</v>
+      <c r="A167" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E167" s="4">
+        <v>3</v>
+      </c>
+      <c r="F167" s="4">
+        <v>108129.4725</v>
+      </c>
+      <c r="G167" s="4"/>
+      <c r="H167" s="4">
+        <v>66298.560063571465</v>
       </c>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
@@ -9613,26 +9642,24 @@
     </row>
     <row r="168" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E168" s="4">
         <v>1</v>
       </c>
       <c r="F168" s="4">
-        <v>991.69811320754718</v>
-      </c>
-      <c r="G168" s="4">
-        <v>6</v>
-      </c>
+        <v>43334.491121762359</v>
+      </c>
+      <c r="G168" s="4"/>
       <c r="H168" s="4">
-        <v>674.35471698113213</v>
+        <v>33800.903074974638</v>
       </c>
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
@@ -9667,27 +9694,27 @@
       <c r="AM168" s="1"/>
     </row>
     <row r="169" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A169" s="3" t="s">
+      <c r="A169" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B169" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B169" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C169" s="3"/>
-      <c r="D169" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E169" s="3">
-        <v>1</v>
-      </c>
-      <c r="F169" s="3">
-        <v>33.056603773584897</v>
-      </c>
-      <c r="G169" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="H169" s="3">
-        <v>22.478490566037731</v>
+      <c r="C169" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E169" s="4">
+        <v>2</v>
+      </c>
+      <c r="F169" s="4">
+        <v>13733.124</v>
+      </c>
+      <c r="G169" s="4"/>
+      <c r="H169" s="4">
+        <v>10988.22555122564</v>
       </c>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
@@ -9722,27 +9749,27 @@
       <c r="AM169" s="1"/>
     </row>
     <row r="170" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A170" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C170" s="4"/>
-      <c r="D170" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E170" s="4">
-        <v>4</v>
-      </c>
-      <c r="F170" s="4">
-        <v>264.45283018867917</v>
-      </c>
-      <c r="G170" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="H170" s="4">
-        <v>179.82792452830191</v>
+      <c r="A170" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E170" s="3">
+        <v>1</v>
+      </c>
+      <c r="F170" s="3">
+        <v>11529.674999999999</v>
+      </c>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3">
+        <v>9225.1893620364535</v>
       </c>
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
@@ -9778,26 +9805,26 @@
     </row>
     <row r="171" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C171" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D171" s="3" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E171" s="3">
         <v>1</v>
       </c>
       <c r="F171" s="3">
-        <v>41.320754716981128</v>
-      </c>
-      <c r="G171" s="3">
-        <v>0.25</v>
-      </c>
+        <v>8900.1</v>
+      </c>
+      <c r="G171" s="3"/>
       <c r="H171" s="3">
-        <v>28.098113207547168</v>
+        <v>7878.7770491803276</v>
       </c>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
@@ -9833,26 +9860,26 @@
     </row>
     <row r="172" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C172" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D172" s="4" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E172" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F172" s="4">
-        <v>727.24528301886789</v>
-      </c>
-      <c r="G172" s="4">
-        <v>4.4000000000000004</v>
-      </c>
+        <v>10052</v>
+      </c>
+      <c r="G172" s="4"/>
       <c r="H172" s="4">
-        <v>494.52679245283019</v>
+        <v>6935.8799999999992</v>
       </c>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
@@ -9888,26 +9915,24 @@
     </row>
     <row r="173" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E173" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F173" s="3">
-        <v>16.528301886792448</v>
-      </c>
-      <c r="G173" s="3">
-        <v>0.1</v>
-      </c>
+        <v>8863.8731839968459</v>
+      </c>
+      <c r="G173" s="3"/>
       <c r="H173" s="3">
-        <v>11.239245283018869</v>
+        <v>6913.8210835175414</v>
       </c>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
@@ -9942,27 +9967,27 @@
       <c r="AM173" s="1"/>
     </row>
     <row r="174" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A174" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C174" s="4"/>
-      <c r="D174" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E174" s="4">
+      <c r="A174" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C174" s="3"/>
+      <c r="D174" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E174" s="3">
         <v>1</v>
       </c>
-      <c r="F174" s="4">
-        <v>24.79245283018868</v>
-      </c>
-      <c r="G174" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="H174" s="4">
-        <v>16.858867924528301</v>
+      <c r="F174" s="3">
+        <v>3305.6603773584911</v>
+      </c>
+      <c r="G174" s="3">
+        <v>20</v>
+      </c>
+      <c r="H174" s="3">
+        <v>2247.849056603774</v>
       </c>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
@@ -9998,26 +10023,26 @@
     </row>
     <row r="175" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B175" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C175" s="3"/>
       <c r="D175" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E175" s="3">
         <v>1</v>
       </c>
       <c r="F175" s="3">
-        <v>115.69811320754719</v>
-      </c>
-      <c r="G175" s="3">
-        <v>0.7</v>
-      </c>
+        <v>2367.9</v>
+      </c>
+      <c r="G175" s="3"/>
       <c r="H175" s="3">
-        <v>78.674716981132079</v>
+        <v>1846.962</v>
       </c>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
@@ -10052,27 +10077,27 @@
       <c r="AM175" s="1"/>
     </row>
     <row r="176" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A176" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C176" s="4"/>
-      <c r="D176" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E176" s="4">
-        <v>1</v>
-      </c>
-      <c r="F176" s="4">
-        <v>1487.5471698113211</v>
-      </c>
-      <c r="G176" s="4">
+      <c r="A176" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H176" s="4">
-        <v>1011.532075471698</v>
+      <c r="D176" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E176" s="3">
+        <v>2</v>
+      </c>
+      <c r="F176" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3">
+        <v>966</v>
       </c>
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
@@ -10107,27 +10132,27 @@
       <c r="AM176" s="1"/>
     </row>
     <row r="177" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A177" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B177" s="3" t="s">
+      <c r="A177" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E177" s="3">
-        <v>3</v>
-      </c>
-      <c r="F177" s="3">
-        <v>330.56603773584908</v>
-      </c>
-      <c r="G177" s="3">
+      <c r="E177" s="4">
         <v>2</v>
       </c>
-      <c r="H177" s="3">
-        <v>224.7849056603774</v>
+      <c r="F177" s="4">
+        <v>826.41509433962267</v>
+      </c>
+      <c r="G177" s="4">
+        <v>5</v>
+      </c>
+      <c r="H177" s="4">
+        <v>561.9622641509435</v>
       </c>
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
@@ -10163,26 +10188,26 @@
     </row>
     <row r="178" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C178" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D178" s="4" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E178" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F178" s="4">
-        <v>487.58490566037727</v>
-      </c>
-      <c r="G178" s="4">
-        <v>2.95</v>
-      </c>
+        <v>229.69450000000001</v>
+      </c>
+      <c r="G178" s="4"/>
       <c r="H178" s="4">
-        <v>331.5577358490566</v>
+        <v>179.16171</v>
       </c>
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
@@ -10217,27 +10242,25 @@
       <c r="AM178" s="1"/>
     </row>
     <row r="179" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A179" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C179" s="3"/>
-      <c r="D179" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E179" s="3">
-        <v>1</v>
-      </c>
-      <c r="F179" s="3">
-        <v>165.28301886792451</v>
-      </c>
-      <c r="G179" s="3">
-        <v>1</v>
-      </c>
-      <c r="H179" s="3">
-        <v>112.3924528301887</v>
+      <c r="A179" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179" s="4"/>
+      <c r="D179" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E179" s="4">
+        <v>4</v>
+      </c>
+      <c r="F179" s="4">
+        <v>154804.46171428569</v>
+      </c>
+      <c r="G179" s="4"/>
+      <c r="H179" s="4">
+        <v>125821.24751667721</v>
       </c>
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
@@ -10273,26 +10296,26 @@
     </row>
     <row r="180" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C180" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D180" s="4" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E180" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F180" s="4">
-        <v>1942.075471698113</v>
-      </c>
-      <c r="G180" s="4">
-        <v>11.75</v>
-      </c>
+        <v>26065.505312000001</v>
+      </c>
+      <c r="G180" s="4"/>
       <c r="H180" s="4">
-        <v>1320.6113207547171</v>
+        <v>20331.094143359998</v>
       </c>
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
@@ -10328,26 +10351,24 @@
     </row>
     <row r="181" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C181" s="3"/>
       <c r="D181" s="3" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="E181" s="3">
         <v>3</v>
       </c>
       <c r="F181" s="3">
-        <v>1578.4528301886789</v>
-      </c>
-      <c r="G181" s="3">
-        <v>9.5500000000000007</v>
-      </c>
+        <v>42307.65</v>
+      </c>
+      <c r="G181" s="3"/>
       <c r="H181" s="3">
-        <v>1073.347924528302</v>
+        <v>14390.364620234821</v>
       </c>
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
@@ -10383,26 +10404,26 @@
     </row>
     <row r="182" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C182" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D182" s="4" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E182" s="4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F182" s="4">
-        <v>2866.007547169811</v>
-      </c>
-      <c r="G182" s="4">
-        <v>17.34</v>
-      </c>
+        <v>10675.625</v>
+      </c>
+      <c r="G182" s="4"/>
       <c r="H182" s="4">
-        <v>1948.885132075472</v>
+        <v>8676.8846365638765</v>
       </c>
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
@@ -10438,26 +10459,26 @@
     </row>
     <row r="183" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C183" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D183" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E183" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F183" s="3">
-        <v>244.68498113207551</v>
-      </c>
-      <c r="G183" s="3">
-        <v>1.4803999999999999</v>
-      </c>
+        <v>3444</v>
+      </c>
+      <c r="G183" s="3"/>
       <c r="H183" s="3">
-        <v>166.38578716981141</v>
+        <v>2376.36</v>
       </c>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
@@ -10492,27 +10513,27 @@
       <c r="AM183" s="1"/>
     </row>
     <row r="184" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A184" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C184" s="4"/>
-      <c r="D184" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E184" s="4">
-        <v>3</v>
-      </c>
-      <c r="F184" s="4">
-        <v>793.35849056603774</v>
-      </c>
-      <c r="G184" s="4">
-        <v>4.8</v>
-      </c>
-      <c r="H184" s="4">
-        <v>539.48377358490575</v>
+      <c r="A184" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E184" s="3">
+        <v>1</v>
+      </c>
+      <c r="F184" s="3">
+        <v>2697</v>
+      </c>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3">
+        <v>2103.66</v>
       </c>
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
@@ -10548,26 +10569,24 @@
     </row>
     <row r="185" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="3" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E185" s="3">
         <v>4</v>
       </c>
       <c r="F185" s="3">
-        <v>101.6490566037736</v>
-      </c>
-      <c r="G185" s="3">
-        <v>0.61499999999999999</v>
-      </c>
+        <v>682.18499999999995</v>
+      </c>
+      <c r="G185" s="3"/>
       <c r="H185" s="3">
-        <v>69.121358490566038</v>
+        <v>532.10430000000008</v>
       </c>
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
@@ -10602,27 +10621,27 @@
       <c r="AM185" s="1"/>
     </row>
     <row r="186" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A186" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B186" s="4" t="s">
+      <c r="A186" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C186" s="4"/>
-      <c r="D186" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E186" s="4">
-        <v>3</v>
-      </c>
-      <c r="F186" s="4">
-        <v>2561.8867924528299</v>
-      </c>
-      <c r="G186" s="4">
-        <v>15.5</v>
-      </c>
-      <c r="H186" s="4">
-        <v>1742.0830188679249</v>
+      <c r="E186" s="3">
+        <v>4</v>
+      </c>
+      <c r="F186" s="3">
+        <v>760.30188679245282</v>
+      </c>
+      <c r="G186" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H186" s="3">
+        <v>517.005283018868</v>
       </c>
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
@@ -10658,26 +10677,26 @@
     </row>
     <row r="187" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C187" s="3"/>
       <c r="D187" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E187" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F187" s="3">
-        <v>330.56603773584908</v>
+        <v>743.77358490566041</v>
       </c>
       <c r="G187" s="3">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="H187" s="3">
-        <v>224.7849056603774</v>
+        <v>505.76603773584912</v>
       </c>
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
@@ -10713,26 +10732,26 @@
     </row>
     <row r="188" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E188" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F188" s="4">
-        <v>532.21132075471689</v>
+        <v>165.28301886792451</v>
       </c>
       <c r="G188" s="4">
-        <v>3.22</v>
+        <v>1</v>
       </c>
       <c r="H188" s="4">
-        <v>361.9036981132075</v>
+        <v>112.3924528301887</v>
       </c>
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
@@ -10767,27 +10786,25 @@
       <c r="AM188" s="1"/>
     </row>
     <row r="189" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A189" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C189" s="3"/>
-      <c r="D189" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="3">
+      <c r="A189" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C189" s="4"/>
+      <c r="D189" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E189" s="4">
         <v>1</v>
       </c>
-      <c r="F189" s="3">
-        <v>165.28301886792451</v>
-      </c>
-      <c r="G189" s="3">
-        <v>1</v>
-      </c>
-      <c r="H189" s="3">
-        <v>112.3924528301887</v>
+      <c r="F189" s="4">
+        <v>13750</v>
+      </c>
+      <c r="G189" s="4"/>
+      <c r="H189" s="4">
+        <v>12334.558823529411</v>
       </c>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
@@ -10822,27 +10839,25 @@
       <c r="AM189" s="1"/>
     </row>
     <row r="190" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A190" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C190" s="4"/>
-      <c r="D190" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E190" s="4">
-        <v>1</v>
-      </c>
-      <c r="F190" s="4">
-        <v>991.69811320754718</v>
-      </c>
-      <c r="G190" s="4">
-        <v>6</v>
-      </c>
-      <c r="H190" s="4">
-        <v>674.35471698113213</v>
+      <c r="A190" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E190" s="3">
+        <v>2</v>
+      </c>
+      <c r="F190" s="3">
+        <v>6772.5144</v>
+      </c>
+      <c r="G190" s="3"/>
+      <c r="H190" s="3">
+        <v>5282.561232</v>
       </c>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
@@ -10877,27 +10892,27 @@
       <c r="AM190" s="1"/>
     </row>
     <row r="191" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A191" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C191" s="3"/>
-      <c r="D191" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E191" s="3">
+      <c r="A191" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E191" s="4">
         <v>1</v>
       </c>
-      <c r="F191" s="3">
-        <v>115.69811320754719</v>
-      </c>
-      <c r="G191" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="H191" s="3">
-        <v>78.674716981132079</v>
+      <c r="F191" s="4">
+        <v>1316</v>
+      </c>
+      <c r="G191" s="4"/>
+      <c r="H191" s="4">
+        <v>908.04</v>
       </c>
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
@@ -10933,26 +10948,26 @@
     </row>
     <row r="192" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E192" s="4">
         <v>1</v>
       </c>
       <c r="F192" s="4">
-        <v>247.9245283018868</v>
+        <v>1156.981132075472</v>
       </c>
       <c r="G192" s="4">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="H192" s="4">
-        <v>168.588679245283</v>
+        <v>786.74716981132087</v>
       </c>
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
@@ -10988,26 +11003,24 @@
     </row>
     <row r="193" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C193" s="3"/>
       <c r="D193" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E193" s="3">
         <v>1</v>
       </c>
       <c r="F193" s="3">
-        <v>198.33962264150941</v>
-      </c>
-      <c r="G193" s="3">
-        <v>1.2</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="G193" s="3"/>
       <c r="H193" s="3">
-        <v>134.87094339622641</v>
+        <v>468</v>
       </c>
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
@@ -11042,27 +11055,27 @@
       <c r="AM193" s="1"/>
     </row>
     <row r="194" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A194" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B194" s="4" t="s">
+      <c r="A194" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C194" s="4"/>
-      <c r="D194" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E194" s="4">
-        <v>3</v>
-      </c>
-      <c r="F194" s="4">
-        <v>710.71698113207549</v>
-      </c>
-      <c r="G194" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="H194" s="4">
-        <v>483.28754716981138</v>
+      <c r="E194" s="3">
+        <v>2</v>
+      </c>
+      <c r="F194" s="3">
+        <v>661.13207547169816</v>
+      </c>
+      <c r="G194" s="3">
+        <v>4</v>
+      </c>
+      <c r="H194" s="3">
+        <v>449.56981132075481</v>
       </c>
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
@@ -11097,27 +11110,27 @@
       <c r="AM194" s="1"/>
     </row>
     <row r="195" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A195" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C195" s="3"/>
-      <c r="D195" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E195" s="3">
-        <v>1</v>
-      </c>
-      <c r="F195" s="3">
-        <v>115.69811320754719</v>
-      </c>
-      <c r="G195" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="H195" s="3">
-        <v>78.674716981132079</v>
+      <c r="A195" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C195" s="4"/>
+      <c r="D195" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E195" s="4">
+        <v>2</v>
+      </c>
+      <c r="F195" s="4">
+        <v>471.05660377358492</v>
+      </c>
+      <c r="G195" s="4">
+        <v>2.85</v>
+      </c>
+      <c r="H195" s="4">
+        <v>320.31849056603778</v>
       </c>
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
@@ -11153,26 +11166,24 @@
     </row>
     <row r="196" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E196" s="4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F196" s="4">
-        <v>1239.6226415094341</v>
-      </c>
-      <c r="G196" s="4">
-        <v>7.5</v>
-      </c>
+        <v>369575.4899328571</v>
+      </c>
+      <c r="G196" s="4"/>
       <c r="H196" s="4">
-        <v>842.94339622641519</v>
+        <v>300741.68565279659</v>
       </c>
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
@@ -11207,27 +11218,25 @@
       <c r="AM196" s="1"/>
     </row>
     <row r="197" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A197" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C197" s="3"/>
-      <c r="D197" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E197" s="3">
-        <v>1</v>
-      </c>
-      <c r="F197" s="3">
-        <v>3305.6603773584911</v>
-      </c>
-      <c r="G197" s="3">
-        <v>20</v>
-      </c>
-      <c r="H197" s="3">
-        <v>2247.849056603774</v>
+      <c r="A197" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C197" s="4"/>
+      <c r="D197" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E197" s="4">
+        <v>3</v>
+      </c>
+      <c r="F197" s="4">
+        <v>207736.42499999999</v>
+      </c>
+      <c r="G197" s="4"/>
+      <c r="H197" s="4">
+        <v>118380.17016666671</v>
       </c>
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
@@ -11263,26 +11272,24 @@
     </row>
     <row r="198" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E198" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F198" s="4">
-        <v>826.41509433962267</v>
-      </c>
-      <c r="G198" s="4">
-        <v>5</v>
-      </c>
+        <v>93094.787484047643</v>
+      </c>
+      <c r="G198" s="4"/>
       <c r="H198" s="4">
-        <v>561.9622641509435</v>
+        <v>72613.934237557158</v>
       </c>
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
@@ -11318,26 +11325,24 @@
     </row>
     <row r="199" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C199" s="3"/>
       <c r="D199" s="3" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E199" s="3">
         <v>4</v>
       </c>
       <c r="F199" s="3">
-        <v>760.30188679245282</v>
-      </c>
-      <c r="G199" s="3">
-        <v>4.5999999999999996</v>
-      </c>
+        <v>54590.286599999992</v>
+      </c>
+      <c r="G199" s="3"/>
       <c r="H199" s="3">
-        <v>517.005283018868</v>
+        <v>42580.423547999999</v>
       </c>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
@@ -11372,27 +11377,27 @@
       <c r="AM199" s="1"/>
     </row>
     <row r="200" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A200" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C200" s="4"/>
-      <c r="D200" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="4">
-        <v>1</v>
-      </c>
-      <c r="F200" s="4">
-        <v>165.28301886792451</v>
-      </c>
-      <c r="G200" s="4">
-        <v>1</v>
-      </c>
-      <c r="H200" s="4">
-        <v>112.3924528301887</v>
+      <c r="A200" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E200" s="3">
+        <v>2</v>
+      </c>
+      <c r="F200" s="3">
+        <v>25109.07</v>
+      </c>
+      <c r="G200" s="3"/>
+      <c r="H200" s="3">
+        <v>20432.4806235012</v>
       </c>
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
@@ -11428,26 +11433,26 @@
     </row>
     <row r="201" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C201" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D201" s="3" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E201" s="3">
         <v>1</v>
       </c>
       <c r="F201" s="3">
-        <v>743.77358490566041</v>
-      </c>
-      <c r="G201" s="3">
-        <v>4.5</v>
-      </c>
+        <v>12040</v>
+      </c>
+      <c r="G201" s="3"/>
       <c r="H201" s="3">
-        <v>505.76603773584912</v>
+        <v>8307.5999999999985</v>
       </c>
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
@@ -11482,27 +11487,25 @@
       <c r="AM201" s="1"/>
     </row>
     <row r="202" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A202" s="4" t="s">
+      <c r="A202" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B202" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C202" s="4"/>
-      <c r="D202" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E202" s="4">
-        <v>2</v>
-      </c>
-      <c r="F202" s="4">
-        <v>471.05660377358492</v>
-      </c>
-      <c r="G202" s="4">
-        <v>2.85</v>
-      </c>
-      <c r="H202" s="4">
-        <v>320.31849056603778</v>
+      <c r="B202" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C202" s="3"/>
+      <c r="D202" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E202" s="3">
+        <v>7</v>
+      </c>
+      <c r="F202" s="3">
+        <v>5554.0998799999998</v>
+      </c>
+      <c r="G202" s="3"/>
+      <c r="H202" s="3">
+        <v>4332.1979063999997</v>
       </c>
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
@@ -11537,27 +11540,27 @@
       <c r="AM202" s="1"/>
     </row>
     <row r="203" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A203" s="3" t="s">
+      <c r="A203" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B203" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C203" s="3"/>
-      <c r="D203" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E203" s="3">
+      <c r="B203" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E203" s="4">
         <v>2</v>
       </c>
-      <c r="F203" s="3">
-        <v>661.13207547169816</v>
-      </c>
-      <c r="G203" s="3">
-        <v>4</v>
-      </c>
-      <c r="H203" s="3">
-        <v>449.56981132075481</v>
+      <c r="F203" s="4">
+        <v>1428</v>
+      </c>
+      <c r="G203" s="4"/>
+      <c r="H203" s="4">
+        <v>985.31999999999994</v>
       </c>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
@@ -11596,23 +11599,23 @@
         <v>45</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E204" s="4">
         <v>11</v>
       </c>
-      <c r="E204" s="4">
-        <v>1</v>
-      </c>
       <c r="F204" s="4">
-        <v>1156.981132075472</v>
+        <v>1037.4815094339619</v>
       </c>
       <c r="G204" s="4">
-        <v>7</v>
+        <v>6.2770000000000001</v>
       </c>
       <c r="H204" s="4">
-        <v>786.74716981132087</v>
+        <v>705.48742641509443</v>
       </c>
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
@@ -11648,14 +11651,14 @@
     </row>
     <row r="205" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B205" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="C205" s="3"/>
       <c r="D205" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E205" s="3">
         <v>1</v>
@@ -11703,26 +11706,26 @@
     </row>
     <row r="206" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C206" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D206" s="4" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E206" s="4">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F206" s="4">
-        <v>1037.4815094339619</v>
-      </c>
-      <c r="G206" s="4">
-        <v>6.2770000000000001</v>
-      </c>
+        <v>13425.665999999999</v>
+      </c>
+      <c r="G206" s="4"/>
       <c r="H206" s="4">
-        <v>705.48742641509443</v>
+        <v>0</v>
       </c>
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
@@ -52757,6 +52760,11 @@
       <c r="AM1206" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H206" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H206">
+      <sortCondition ref="A1:A206"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
